--- a/src/cloud/tests/HCM/OTL_USA/TimeEntryITC_Test.xlsx
+++ b/src/cloud/tests/HCM/OTL_USA/TimeEntryITC_Test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vramasubramanian\OneDrive - IT Convergence\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\HCM\OTL_USA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57AD5ED-E295-40E0-AEA8-01616D5F2491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13155" windowHeight="2520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Execute</t>
   </si>
@@ -58,9 +64,6 @@
     <t>TimeEntryITC</t>
   </si>
   <si>
-    <t>T3 Time Entry</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -70,16 +73,73 @@
     <t>SelectDates</t>
   </si>
   <si>
-    <t>4/11/21</t>
-  </si>
-  <si>
     <t>{HCM_US_username}</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Expenditure_Type</t>
+  </si>
+  <si>
+    <t>Professional - Straight Time</t>
+  </si>
+  <si>
+    <t>6/20/21</t>
+  </si>
+  <si>
+    <t>Test1 Time Entry</t>
+  </si>
+  <si>
+    <t>1.101</t>
+  </si>
+  <si>
+    <t>501112</t>
+  </si>
+  <si>
+    <t>Date1</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>6/14/21</t>
+  </si>
+  <si>
+    <t>513711</t>
+  </si>
+  <si>
+    <t>1.201</t>
+  </si>
+  <si>
+    <t>Contractor: Corp - Straight Time</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -246,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -298,7 +359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -492,18 +553,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,12 +575,12 @@
     <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
-    <col min="9" max="11" width="20.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0.85546875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16" width="20.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="0.85546875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +597,13 @@
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -551,16 +617,31 @@
         <v>9</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -568,29 +649,82 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6"/>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -598,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
